--- a/线性度.xlsx
+++ b/线性度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="82">
   <si>
     <t>Offset</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>ToT_7ns</t>
+  </si>
+  <si>
+    <t>hit_ToT</t>
   </si>
   <si>
     <t>hit_7ns</t>
@@ -895,10 +898,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -991,7 +994,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1099,7 +1102,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:f>Sheet1!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1187,7 +1190,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1295,7 +1298,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$26</c:f>
+              <c:f>Sheet1!$N$2:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1383,7 +1386,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$1</c:f>
+              <c:f>Sheet1!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1491,7 +1494,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$26</c:f>
+              <c:f>Sheet1!$U$2:$U$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2128,14 +2131,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
-                <c:pt idx="6" c:formatCode="0.0000_ ">
-                  <c:v>11.6875</c:v>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.5625</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>74.7524</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3404,13 +3407,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>640977</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>85164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1035424</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>138952</xdr:rowOff>
@@ -3421,7 +3424,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9217025" y="5742940"/>
+        <a:off x="10368280" y="5742940"/>
         <a:ext cx="5042535" cy="2625090"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3434,13 +3437,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>264459</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>811306</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>31376</xdr:rowOff>
@@ -3451,8 +3454,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11101070" y="10100945"/>
-        <a:ext cx="5025390" cy="2617470"/>
+        <a:off x="12252325" y="10100945"/>
+        <a:ext cx="6278245" cy="2617470"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3715,10 +3718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3728,24 +3731,25 @@
     <col min="3" max="3" width="19.1083333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.1083333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.4416666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.775" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.8833333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1083333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.3333333333333" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="15.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="13" width="16.4416666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.775" style="1" customWidth="1"/>
+    <col min="16" max="16" width="29.8833333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="1" customWidth="1"/>
+    <col min="19" max="20" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1083333333333" style="3" customWidth="1"/>
+    <col min="22" max="22" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3764,7 +3768,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3779,52 +3783,55 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
+      <c r="G2" s="2">
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
@@ -3838,52 +3845,61 @@
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
         <v>50</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="3">
+      <c r="R2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2">
+        <v>50</v>
+      </c>
+      <c r="U2" s="2">
         <v>75</v>
       </c>
-      <c r="S2" s="3">
+      <c r="V2" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>24</v>
@@ -3897,704 +3913,812 @@
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
         <v>50</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="P3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="R3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="2">
+        <v>50</v>
+      </c>
+      <c r="U3" s="2">
         <v>75</v>
       </c>
-      <c r="S3" s="3">
+      <c r="V3" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
+      <c r="G4" s="2">
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>48.4375</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="3">
-        <v>48.4375</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="T4" s="2">
+        <v>50</v>
+      </c>
+      <c r="U4" s="2">
         <v>73.4375</v>
       </c>
-      <c r="S4" s="3">
+      <c r="V4" s="2">
         <v>226.5625</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
+      <c r="G5" s="2">
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2">
+        <v>48.4375</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="3">
-        <v>48.4375</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="T5" s="2">
+        <v>50</v>
+      </c>
+      <c r="U5" s="2">
         <v>73.4375</v>
       </c>
-      <c r="S5" s="3">
+      <c r="V5" s="2">
         <v>226.5625</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="N6" s="2">
         <v>46.875</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="2">
+        <v>50</v>
+      </c>
+      <c r="U6" s="2">
         <v>71.875</v>
       </c>
-      <c r="S6" s="3">
+      <c r="V6" s="2">
         <v>228.125</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
+      <c r="G7" s="2">
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
         <v>25</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="N7" s="2">
         <v>45.3125</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="3">
+      <c r="S7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="2">
+        <v>50</v>
+      </c>
+      <c r="U7" s="2">
         <v>70.3125</v>
       </c>
-      <c r="S7" s="3">
+      <c r="V7" s="2">
         <v>229.6875</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="G8" s="2">
+        <v>45.3125</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2">
         <v>45.3125</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="3">
-        <v>45.3125</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="S8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="2">
+        <v>50</v>
+      </c>
+      <c r="U8" s="2">
         <v>70.3125</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="2">
         <v>229.6875</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="2">
+        <v>43.75</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2">
         <v>43.75</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="O9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="3">
-        <v>43.75</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="2">
+        <v>50</v>
+      </c>
+      <c r="U9" s="2">
         <v>68.75</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="2">
         <v>231.25</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="2">
+        <v>42.1875</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2">
         <v>42.1875</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="3">
-        <v>42.1875</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="2">
         <v>50</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="U10" s="2">
         <v>67.1875</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="2">
         <v>232.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="G11" s="2">
+        <v>42.1875</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2">
         <v>42.1875</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="O11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="3">
-        <v>42.1875</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="S11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="2">
         <v>50</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="3">
+      <c r="U11" s="2">
         <v>67.1875</v>
       </c>
-      <c r="S11" s="3">
+      <c r="V11" s="2">
         <v>232.8125</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" s="2">
+        <v>40.625</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="2">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2">
         <v>40.625</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="O12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="3">
-        <v>40.625</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="S12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="2">
+        <v>50</v>
+      </c>
+      <c r="U12" s="2">
         <v>65.625</v>
       </c>
-      <c r="S12" s="3">
+      <c r="V12" s="2">
         <v>234.375</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="G13" s="2">
+        <v>39.0625</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2">
+        <v>25</v>
+      </c>
+      <c r="N13" s="2">
         <v>39.0625</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="O13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="3">
-        <v>39.0625</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="3">
+      <c r="S13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="2">
+        <v>50</v>
+      </c>
+      <c r="U13" s="2">
         <v>64.0625</v>
       </c>
-      <c r="S13" s="3">
+      <c r="V13" s="2">
         <v>235.9375</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="G14" s="2">
+        <v>39.0625</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="2">
+        <v>25</v>
+      </c>
+      <c r="N14" s="2">
         <v>39.0625</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="O14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="3">
-        <v>39.0625</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="2">
+        <v>50</v>
+      </c>
+      <c r="U14" s="2">
         <v>64.0625</v>
       </c>
-      <c r="S14" s="3">
+      <c r="V14" s="2">
         <v>235.9375</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>23</v>
+      <c r="G15" s="2">
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>20</v>
@@ -4605,55 +4729,64 @@
       <c r="K15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>59</v>
+      <c r="N15" s="2">
+        <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="2">
+        <v>25</v>
+      </c>
+      <c r="U15" s="2">
         <v>62.56</v>
       </c>
-      <c r="S15" s="3">
+      <c r="V15" s="2">
         <v>237.5</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>23</v>
+      <c r="G16" s="2">
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>20</v>
@@ -4664,55 +4797,64 @@
       <c r="K16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="3">
+      <c r="S16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="2">
+        <v>50</v>
+      </c>
+      <c r="U16" s="2">
         <v>87.5</v>
       </c>
-      <c r="S16" s="3">
+      <c r="V16" s="2">
         <v>237.5</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="3">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
+      <c r="G17" s="2">
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>20</v>
@@ -4723,55 +4865,64 @@
       <c r="K17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>63</v>
+      <c r="N17" s="2">
+        <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="3">
+        <v>61</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="2">
+        <v>50</v>
+      </c>
+      <c r="U17" s="2">
         <v>85.9375</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="2">
         <v>239.0625</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="3">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>23</v>
+      <c r="G18" s="2">
+        <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>20</v>
@@ -4782,55 +4933,64 @@
       <c r="K18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>65</v>
+      <c r="N18" s="2">
+        <v>0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R18" s="3">
+        <v>61</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="2">
+        <v>50</v>
+      </c>
+      <c r="U18" s="2">
         <v>84.375</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="2">
         <v>240.625</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="3">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2">
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>23</v>
+      <c r="G19" s="2">
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>20</v>
@@ -4841,55 +5001,64 @@
       <c r="K19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>65</v>
+      <c r="N19" s="2">
+        <v>0</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>66</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="3">
+        <v>61</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="2">
+        <v>50</v>
+      </c>
+      <c r="U19" s="2">
         <v>84.375</v>
       </c>
-      <c r="S19" s="3">
+      <c r="V19" s="2">
         <v>240.625</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2">
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>23</v>
+      <c r="G20" s="2">
+        <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>20</v>
@@ -4900,55 +5069,64 @@
       <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>67</v>
+      <c r="N20" s="2">
+        <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R20" s="3">
+        <v>61</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="2">
+        <v>50</v>
+      </c>
+      <c r="U20" s="2">
         <v>82.8125</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="2">
         <v>242.1875</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>23</v>
+      <c r="G21" s="2">
+        <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>20</v>
@@ -4959,55 +5137,64 @@
       <c r="K21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>69</v>
+      <c r="N21" s="2">
+        <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" s="3">
+        <v>61</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="2">
+        <v>50</v>
+      </c>
+      <c r="U21" s="2">
         <v>81.25</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="2">
         <v>243.75</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="3">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>23</v>
+      <c r="G22" s="2">
+        <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>20</v>
@@ -5018,55 +5205,64 @@
       <c r="K22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>69</v>
+      <c r="N22" s="2">
+        <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R22" s="3">
+        <v>61</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="2">
+        <v>50</v>
+      </c>
+      <c r="U22" s="2">
         <v>81.25</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="2">
         <v>243.75</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="3">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>23</v>
+      <c r="G23" s="2">
+        <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>20</v>
@@ -5077,527 +5273,621 @@
       <c r="K23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>71</v>
+      <c r="N23" s="2">
+        <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R23" s="3">
+        <v>61</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="2">
+        <v>50</v>
+      </c>
+      <c r="U23" s="2">
         <v>79.6875</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="2">
         <v>245.3125</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="3">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>23</v>
+      <c r="G24" s="2">
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="3">
+        <v>75</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="2">
+        <v>25</v>
+      </c>
+      <c r="N24" s="2">
         <v>53.125</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="O24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="2">
+        <v>50</v>
+      </c>
+      <c r="U24" s="2">
         <v>78.125</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="2">
         <v>246.875</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="3">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>23</v>
+      <c r="G25" s="2">
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="3">
+        <v>75</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="2">
+        <v>25</v>
+      </c>
+      <c r="N25" s="2">
         <v>53.125</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="O25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" s="3">
+      <c r="S25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="2">
+        <v>50</v>
+      </c>
+      <c r="U25" s="2">
         <v>78.125</v>
       </c>
-      <c r="S25" s="3">
+      <c r="V25" s="2">
         <v>246.875</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="3">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2">
         <v>0</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>23</v>
+      <c r="G26" s="2">
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="3">
+        <v>79</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="2">
+        <v>25</v>
+      </c>
+      <c r="N26" s="2">
         <v>51.5625</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="O26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" s="2">
+        <v>50</v>
+      </c>
+      <c r="U26" s="2">
         <v>76.5625</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="2">
         <v>248.4375</v>
       </c>
     </row>
-    <row r="27" spans="6:18">
+    <row r="27" spans="6:21">
       <c r="F27" s="2">
-        <f>SUM(F2:F26)/25</f>
+        <v>7</v>
+      </c>
+      <c r="G27" s="3">
+        <f>SUM(G2:G26)/25</f>
         <v>11.6875</v>
       </c>
-      <c r="L27" s="2">
-        <f>SUM(L2:L26)/25</f>
+      <c r="M27" s="2">
+        <v>16</v>
+      </c>
+      <c r="N27" s="3">
+        <f>SUM(N2:N26)/25</f>
         <v>29.5625</v>
       </c>
-      <c r="R27" s="2">
-        <f>SUM(R2:R26)/25</f>
+      <c r="T27" s="2">
+        <v>49</v>
+      </c>
+      <c r="U27" s="3">
+        <f>SUM(U2:U26)/25</f>
         <v>74.7524</v>
       </c>
     </row>
-    <row r="43" spans="4:5">
+    <row r="43" spans="4:6">
       <c r="D43" s="4">
         <v>1</v>
       </c>
       <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="4:5">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="4:6">
       <c r="D44" s="4">
         <v>2</v>
       </c>
       <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="4:5">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="4:6">
       <c r="D45" s="4">
         <v>3</v>
       </c>
       <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="4:5">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="4:6">
       <c r="D46" s="4">
         <v>4</v>
       </c>
       <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="4:5">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="4:6">
       <c r="D47" s="4">
         <v>5</v>
       </c>
       <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="4:5">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="4:6">
       <c r="D48" s="4">
         <v>6</v>
       </c>
       <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="4:5">
       <c r="D49" s="4">
         <v>7</v>
       </c>
       <c r="E49" s="2">
-        <v>11.6875</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
       <c r="D50" s="4">
         <v>8</v>
       </c>
       <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="4:5">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="4:6">
       <c r="D51" s="4">
         <v>9</v>
       </c>
       <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="4:5">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="4:6">
       <c r="D52" s="4">
         <v>10</v>
       </c>
       <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="4:5">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="4:6">
       <c r="D53" s="4">
         <v>11</v>
       </c>
       <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="4:5">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="4:6">
       <c r="D54" s="4">
         <v>12</v>
       </c>
       <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="4:5">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="4:6">
       <c r="D55" s="4">
         <v>13</v>
       </c>
       <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="4:5">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="4:6">
       <c r="D56" s="4">
         <v>14</v>
       </c>
       <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="4:5">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="4:6">
       <c r="D57" s="4">
         <v>15</v>
       </c>
       <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="4:5">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="4:6">
       <c r="D58" s="4">
         <v>16</v>
       </c>
       <c r="E58" s="4">
-        <v>29.5625</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5">
+        <v>16</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="4:6">
       <c r="D59" s="4">
         <v>17</v>
       </c>
       <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="4:5">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="4:6">
       <c r="D60" s="4">
         <v>18</v>
       </c>
       <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="4:5">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="4:6">
       <c r="D61" s="4">
         <v>19</v>
       </c>
       <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="4:5">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="4:6">
       <c r="D62" s="4">
         <v>20</v>
       </c>
       <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="4:5">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="4:6">
       <c r="D63" s="4">
         <v>21</v>
       </c>
       <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="4:5">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="4:6">
       <c r="D64" s="4">
         <v>22</v>
       </c>
       <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="4:5">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="4:6">
       <c r="D65" s="4">
         <v>23</v>
       </c>
       <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="4:5">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="4:6">
       <c r="D66" s="4">
         <v>24</v>
       </c>
       <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="4:5">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="4:6">
       <c r="D67" s="4">
         <v>25</v>
       </c>
       <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="4:5">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="4:6">
       <c r="D68" s="4">
         <v>26</v>
       </c>
       <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="4:5">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="4:6">
       <c r="D69" s="4">
         <v>27</v>
       </c>
       <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="4:5">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="4:6">
       <c r="D70" s="4">
         <v>28</v>
       </c>
       <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="4:5">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="4:6">
       <c r="D71" s="4">
         <v>29</v>
       </c>
       <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="4:5">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="4:6">
       <c r="D72" s="4">
         <v>30</v>
       </c>
       <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="4:5">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="4:6">
       <c r="D73" s="4">
         <v>31</v>
       </c>
       <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="4:5">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="4:6">
       <c r="D74" s="4">
         <v>32</v>
       </c>
       <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="4:5">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="4:6">
       <c r="D75" s="4">
         <v>33</v>
       </c>
       <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="4:5">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="4:6">
       <c r="D76" s="4">
         <v>34</v>
       </c>
       <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="4:5">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="4:6">
       <c r="D77" s="4">
         <v>35</v>
       </c>
       <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="4:5">
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="4:6">
       <c r="D78" s="4">
         <v>36</v>
       </c>
       <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="4:5">
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="4:6">
       <c r="D79" s="4">
         <v>37</v>
       </c>
       <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="4:5">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="4:6">
       <c r="D80" s="4">
         <v>38</v>
       </c>
       <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="4:5">
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="4:6">
       <c r="D81" s="4">
         <v>39</v>
       </c>
       <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="4:5">
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="4:6">
       <c r="D82" s="4">
         <v>40</v>
       </c>
       <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="4:5">
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="4:6">
       <c r="D83" s="4">
         <v>41</v>
       </c>
       <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="4:5">
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="4:6">
       <c r="D84" s="4">
         <v>42</v>
       </c>
       <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="4:5">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="4:6">
       <c r="D85" s="4">
         <v>43</v>
       </c>
       <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="4:5">
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="4:6">
       <c r="D86" s="4">
         <v>44</v>
       </c>
       <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="4:5">
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="4:6">
       <c r="D87" s="4">
         <v>45</v>
       </c>
       <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="4:5">
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="4:6">
       <c r="D88" s="4">
         <v>46</v>
       </c>
       <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="4:5">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="4:6">
       <c r="D89" s="4">
         <v>47</v>
       </c>
       <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="4:5">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="4:6">
       <c r="D90" s="4">
         <v>48</v>
       </c>
       <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="4:5">
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="4:6">
       <c r="D91" s="4">
         <v>49</v>
       </c>
       <c r="E91" s="4">
-        <v>74.7524</v>
-      </c>
-    </row>
-    <row r="92" spans="4:5">
+        <v>49</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="4:6">
       <c r="D92" s="4">
         <v>50</v>
       </c>
       <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/线性度.xlsx
+++ b/线性度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="10275" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3720,7 +3720,7 @@
   <sheetPr/>
   <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
+    <sheetView topLeftCell="C41" workbookViewId="0">
       <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
@@ -5900,14 +5900,305 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>5525</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
